--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Egf-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Egf-Erbb3.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.088422</v>
+        <v>0.1904096666666667</v>
       </c>
       <c r="H2">
-        <v>0.265266</v>
+        <v>0.571229</v>
       </c>
       <c r="I2">
-        <v>0.05306498573333136</v>
+        <v>0.09975479936454949</v>
       </c>
       <c r="J2">
-        <v>0.05560514240556081</v>
+        <v>0.1077412252037539</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1640393333333333</v>
+        <v>0.07487166666666667</v>
       </c>
       <c r="N2">
-        <v>0.492118</v>
+        <v>0.224615</v>
       </c>
       <c r="O2">
-        <v>0.02017083634918183</v>
+        <v>0.01287435003490057</v>
       </c>
       <c r="P2">
-        <v>0.02777954494355415</v>
+        <v>0.01655871537719798</v>
       </c>
       <c r="Q2">
-        <v>0.014504685932</v>
+        <v>0.01425628909277778</v>
       </c>
       <c r="R2">
-        <v>0.130542173388</v>
+        <v>0.128306601835</v>
       </c>
       <c r="S2">
-        <v>0.001070365143098695</v>
+        <v>0.001284278204680487</v>
       </c>
       <c r="T2">
-        <v>0.001544685552548005</v>
+        <v>0.00178405628253955</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.088422</v>
+        <v>0.1904096666666667</v>
       </c>
       <c r="H3">
-        <v>0.265266</v>
+        <v>0.571229</v>
       </c>
       <c r="I3">
-        <v>0.05306498573333136</v>
+        <v>0.09975479936454949</v>
       </c>
       <c r="J3">
-        <v>0.05560514240556081</v>
+        <v>0.1077412252037539</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.45377</v>
       </c>
       <c r="O3">
-        <v>0.01859903602422231</v>
+        <v>0.02600892111095355</v>
       </c>
       <c r="P3">
-        <v>0.02561484056473563</v>
+        <v>0.03345212152666174</v>
       </c>
       <c r="Q3">
-        <v>0.01337441698</v>
+        <v>0.02880073148111111</v>
       </c>
       <c r="R3">
-        <v>0.12036975282</v>
+        <v>0.25920658333</v>
       </c>
       <c r="S3">
-        <v>0.0009869575812790732</v>
+        <v>0.002594514707111567</v>
       </c>
       <c r="T3">
-        <v>0.00142431685729786</v>
+        <v>0.003604172558947406</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.088422</v>
+        <v>0.1904096666666667</v>
       </c>
       <c r="H4">
-        <v>0.265266</v>
+        <v>0.571229</v>
       </c>
       <c r="I4">
-        <v>0.05306498573333136</v>
+        <v>0.09975479936454949</v>
       </c>
       <c r="J4">
-        <v>0.05560514240556081</v>
+        <v>0.1077412252037539</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.524817</v>
+        <v>0.8000470000000001</v>
       </c>
       <c r="N4">
-        <v>1.574451</v>
+        <v>2.400141</v>
       </c>
       <c r="O4">
-        <v>0.06453328970044923</v>
+        <v>0.1375698656239178</v>
       </c>
       <c r="P4">
-        <v>0.0888761075919267</v>
+        <v>0.1769394371887155</v>
       </c>
       <c r="Q4">
-        <v>0.046405368774</v>
+        <v>0.1523366825876667</v>
       </c>
       <c r="R4">
-        <v>0.417648318966</v>
+        <v>1.371030143289</v>
       </c>
       <c r="S4">
-        <v>0.003424458097279278</v>
+        <v>0.01372325434392195</v>
       </c>
       <c r="T4">
-        <v>0.004941968619101028</v>
+        <v>0.01906367174957486</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.088422</v>
+        <v>0.1904096666666667</v>
       </c>
       <c r="H5">
-        <v>0.265266</v>
+        <v>0.571229</v>
       </c>
       <c r="I5">
-        <v>0.05306498573333136</v>
+        <v>0.09975479936454949</v>
       </c>
       <c r="J5">
-        <v>0.05560514240556081</v>
+        <v>0.1077412252037539</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.68238</v>
+        <v>3.881946</v>
       </c>
       <c r="N5">
-        <v>13.36476</v>
+        <v>7.763892</v>
       </c>
       <c r="O5">
-        <v>0.8216882540552003</v>
+        <v>0.6675092708044715</v>
       </c>
       <c r="P5">
-        <v>0.7544266844127117</v>
+        <v>0.5723574910282232</v>
       </c>
       <c r="Q5">
-        <v>0.59086940436</v>
+        <v>0.7391600438780001</v>
       </c>
       <c r="R5">
-        <v>3.54521642616</v>
+        <v>4.434960263268</v>
       </c>
       <c r="S5">
-        <v>0.04360287547868516</v>
+        <v>0.06658725338307679</v>
       </c>
       <c r="T5">
-        <v>0.04195000322132392</v>
+        <v>0.06166649733792735</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.088422</v>
+        <v>0.1904096666666667</v>
       </c>
       <c r="H6">
-        <v>0.265266</v>
+        <v>0.571229</v>
       </c>
       <c r="I6">
-        <v>0.05306498573333136</v>
+        <v>0.09975479936454949</v>
       </c>
       <c r="J6">
-        <v>0.05560514240556081</v>
+        <v>0.1077412252037539</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6100073333333333</v>
+        <v>0.9074473333333333</v>
       </c>
       <c r="N6">
-        <v>1.830022</v>
+        <v>2.722342</v>
       </c>
       <c r="O6">
-        <v>0.07500858387094646</v>
+        <v>0.1560375924257564</v>
       </c>
       <c r="P6">
-        <v>0.1033028224870719</v>
+        <v>0.2006922348792017</v>
       </c>
       <c r="Q6">
-        <v>0.053938068428</v>
+        <v>0.1727867442575556</v>
       </c>
       <c r="R6">
-        <v>0.485442615852</v>
+        <v>1.555080698318</v>
       </c>
       <c r="S6">
-        <v>0.003980329432989163</v>
+        <v>0.01556549872575868</v>
       </c>
       <c r="T6">
-        <v>0.005744168155290004</v>
+        <v>0.02162282727476474</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>3.034011</v>
       </c>
       <c r="I7">
-        <v>0.6069370007078572</v>
+        <v>0.5298350724050007</v>
       </c>
       <c r="J7">
-        <v>0.6359903406958977</v>
+        <v>0.5722539689365677</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1640393333333333</v>
+        <v>0.07487166666666667</v>
       </c>
       <c r="N7">
-        <v>0.492118</v>
+        <v>0.224615</v>
       </c>
       <c r="O7">
-        <v>0.02017083634918183</v>
+        <v>0.01287435003490057</v>
       </c>
       <c r="P7">
-        <v>0.02777954494355415</v>
+        <v>0.01655871537719798</v>
       </c>
       <c r="Q7">
-        <v>0.1658990472553334</v>
+        <v>0.07572048675166666</v>
       </c>
       <c r="R7">
-        <v>1.493091425298</v>
+        <v>0.6814843807650001</v>
       </c>
       <c r="S7">
-        <v>0.01224242691554144</v>
+        <v>0.006821282182908867</v>
       </c>
       <c r="T7">
-        <v>0.01766752225302801</v>
+        <v>0.009475790595092516</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.034011</v>
       </c>
       <c r="I8">
-        <v>0.6069370007078572</v>
+        <v>0.5298350724050007</v>
       </c>
       <c r="J8">
-        <v>0.6359903406958977</v>
+        <v>0.5722539689365677</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.45377</v>
       </c>
       <c r="O8">
-        <v>0.01859903602422231</v>
+        <v>0.02600892111095355</v>
       </c>
       <c r="P8">
-        <v>0.02561484056473563</v>
+        <v>0.03345212152666174</v>
       </c>
       <c r="Q8">
         <v>0.1529714634966667</v>
@@ -948,10 +948,10 @@
         <v>1.37674317147</v>
       </c>
       <c r="S8">
-        <v>0.01128844314059888</v>
+        <v>0.01378043859999803</v>
       </c>
       <c r="T8">
-        <v>0.01629079117763731</v>
+        <v>0.01914310931298057</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.034011</v>
       </c>
       <c r="I9">
-        <v>0.6069370007078572</v>
+        <v>0.5298350724050007</v>
       </c>
       <c r="J9">
-        <v>0.6359903406958977</v>
+        <v>0.5722539689365677</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.524817</v>
+        <v>0.8000470000000001</v>
       </c>
       <c r="N9">
-        <v>1.574451</v>
+        <v>2.400141</v>
       </c>
       <c r="O9">
-        <v>0.06453328970044923</v>
+        <v>0.1375698656239178</v>
       </c>
       <c r="P9">
-        <v>0.0888761075919267</v>
+        <v>0.1769394371887155</v>
       </c>
       <c r="Q9">
-        <v>0.5307668503290001</v>
+        <v>0.809117132839</v>
       </c>
       <c r="R9">
-        <v>4.776901652961</v>
+        <v>7.282054195551</v>
       </c>
       <c r="S9">
-        <v>0.03916764129660191</v>
+        <v>0.07288933971359469</v>
       </c>
       <c r="T9">
-        <v>0.05652434594711472</v>
+        <v>0.1012542951926449</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.034011</v>
       </c>
       <c r="I10">
-        <v>0.6069370007078572</v>
+        <v>0.5298350724050007</v>
       </c>
       <c r="J10">
-        <v>0.6359903406958977</v>
+        <v>0.5722539689365677</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.68238</v>
+        <v>3.881946</v>
       </c>
       <c r="N10">
-        <v>13.36476</v>
+        <v>7.763892</v>
       </c>
       <c r="O10">
-        <v>0.8216882540552003</v>
+        <v>0.6675092708044715</v>
       </c>
       <c r="P10">
-        <v>0.7544266844127117</v>
+        <v>0.5723574910282232</v>
       </c>
       <c r="Q10">
-        <v>6.758138142060001</v>
+        <v>3.925955621802</v>
       </c>
       <c r="R10">
-        <v>40.54882885236001</v>
+        <v>23.555733730812</v>
       </c>
       <c r="S10">
-        <v>0.498713004433139</v>
+        <v>0.3536698228276964</v>
       </c>
       <c r="T10">
-        <v>0.479808084049717</v>
+        <v>0.3275338458914767</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>3.034011</v>
       </c>
       <c r="I11">
-        <v>0.6069370007078572</v>
+        <v>0.5298350724050007</v>
       </c>
       <c r="J11">
-        <v>0.6359903406958977</v>
+        <v>0.5722539689365677</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6100073333333333</v>
+        <v>0.9074473333333333</v>
       </c>
       <c r="N11">
-        <v>1.830022</v>
+        <v>2.722342</v>
       </c>
       <c r="O11">
-        <v>0.07500858387094646</v>
+        <v>0.1560375924257564</v>
       </c>
       <c r="P11">
-        <v>0.1033028224870719</v>
+        <v>0.2006922348792017</v>
       </c>
       <c r="Q11">
-        <v>0.6169229864713335</v>
+        <v>0.9177350637513332</v>
       </c>
       <c r="R11">
-        <v>5.552306878242001</v>
+        <v>8.259615573762</v>
       </c>
       <c r="S11">
-        <v>0.04552548492197599</v>
+        <v>0.08267418908080265</v>
       </c>
       <c r="T11">
-        <v>0.06569959726840072</v>
+        <v>0.114846927944373</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1361056666666667</v>
+        <v>0.08741566666666667</v>
       </c>
       <c r="H12">
-        <v>0.408317</v>
+        <v>0.262247</v>
       </c>
       <c r="I12">
-        <v>0.08168154147036057</v>
+        <v>0.04579668901430952</v>
       </c>
       <c r="J12">
-        <v>0.08559153804713523</v>
+        <v>0.04946319792238989</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1640393333333333</v>
+        <v>0.07487166666666667</v>
       </c>
       <c r="N12">
-        <v>0.492118</v>
+        <v>0.224615</v>
       </c>
       <c r="O12">
-        <v>0.02017083634918183</v>
+        <v>0.01287435003490057</v>
       </c>
       <c r="P12">
-        <v>0.02777954494355415</v>
+        <v>0.01655871537719798</v>
       </c>
       <c r="Q12">
-        <v>0.02232668282288889</v>
+        <v>0.006544956656111112</v>
       </c>
       <c r="R12">
-        <v>0.200940145406</v>
+        <v>0.058904609905</v>
       </c>
       <c r="S12">
-        <v>0.001647585005747552</v>
+        <v>0.0005896026048097063</v>
       </c>
       <c r="T12">
-        <v>0.002377693977968318</v>
+        <v>0.0008190470160428644</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1361056666666667</v>
+        <v>0.08741566666666667</v>
       </c>
       <c r="H13">
-        <v>0.408317</v>
+        <v>0.262247</v>
       </c>
       <c r="I13">
-        <v>0.08168154147036057</v>
+        <v>0.04579668901430952</v>
       </c>
       <c r="J13">
-        <v>0.08559153804713523</v>
+        <v>0.04946319792238989</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.45377</v>
       </c>
       <c r="O13">
-        <v>0.01859903602422231</v>
+        <v>0.02600892111095355</v>
       </c>
       <c r="P13">
-        <v>0.02561484056473563</v>
+        <v>0.03345212152666174</v>
       </c>
       <c r="Q13">
-        <v>0.02058688945444444</v>
+        <v>0.01322220235444445</v>
       </c>
       <c r="R13">
-        <v>0.18528200509</v>
+        <v>0.11899982119</v>
       </c>
       <c r="S13">
-        <v>0.001519197932321245</v>
+        <v>0.001191122471716049</v>
       </c>
       <c r="T13">
-        <v>0.002192413600767872</v>
+        <v>0.001654648907997109</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1361056666666667</v>
+        <v>0.08741566666666667</v>
       </c>
       <c r="H14">
-        <v>0.408317</v>
+        <v>0.262247</v>
       </c>
       <c r="I14">
-        <v>0.08168154147036057</v>
+        <v>0.04579668901430952</v>
       </c>
       <c r="J14">
-        <v>0.08559153804713523</v>
+        <v>0.04946319792238989</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.524817</v>
+        <v>0.8000470000000001</v>
       </c>
       <c r="N14">
-        <v>1.574451</v>
+        <v>2.400141</v>
       </c>
       <c r="O14">
-        <v>0.06453328970044923</v>
+        <v>0.1375698656239178</v>
       </c>
       <c r="P14">
-        <v>0.0888761075919267</v>
+        <v>0.1769394371887155</v>
       </c>
       <c r="Q14">
-        <v>0.071430567663</v>
+        <v>0.06993664186966668</v>
       </c>
       <c r="R14">
-        <v>0.6428751089670001</v>
+        <v>0.6294297768270001</v>
       </c>
       <c r="S14">
-        <v>0.005271178578886037</v>
+        <v>0.006300244353718912</v>
       </c>
       <c r="T14">
-        <v>0.007607042744435679</v>
+        <v>0.008751990401941707</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1361056666666667</v>
+        <v>0.08741566666666667</v>
       </c>
       <c r="H15">
-        <v>0.408317</v>
+        <v>0.262247</v>
       </c>
       <c r="I15">
-        <v>0.08168154147036057</v>
+        <v>0.04579668901430952</v>
       </c>
       <c r="J15">
-        <v>0.08559153804713523</v>
+        <v>0.04946319792238989</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.68238</v>
+        <v>3.881946</v>
       </c>
       <c r="N15">
-        <v>13.36476</v>
+        <v>7.763892</v>
       </c>
       <c r="O15">
-        <v>0.8216882540552003</v>
+        <v>0.6675092708044715</v>
       </c>
       <c r="P15">
-        <v>0.7544266844127117</v>
+        <v>0.5723574910282232</v>
       </c>
       <c r="Q15">
-        <v>0.9095097848200001</v>
+        <v>0.339342897554</v>
       </c>
       <c r="R15">
-        <v>5.457058708920001</v>
+        <v>2.036057385324</v>
       </c>
       <c r="S15">
-        <v>0.06711676319931802</v>
+        <v>0.0305697144892009</v>
       </c>
       <c r="T15">
-        <v>0.06457254026268469</v>
+        <v>0.0283106318610915</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1361056666666667</v>
+        <v>0.08741566666666667</v>
       </c>
       <c r="H16">
-        <v>0.408317</v>
+        <v>0.262247</v>
       </c>
       <c r="I16">
-        <v>0.08168154147036057</v>
+        <v>0.04579668901430952</v>
       </c>
       <c r="J16">
-        <v>0.08559153804713523</v>
+        <v>0.04946319792238989</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6100073333333333</v>
+        <v>0.9074473333333333</v>
       </c>
       <c r="N16">
-        <v>1.830022</v>
+        <v>2.722342</v>
       </c>
       <c r="O16">
-        <v>0.07500858387094646</v>
+        <v>0.1560375924257564</v>
       </c>
       <c r="P16">
-        <v>0.1033028224870719</v>
+        <v>0.2006922348792017</v>
       </c>
       <c r="Q16">
-        <v>0.0830254547748889</v>
+        <v>0.07932511360822223</v>
       </c>
       <c r="R16">
-        <v>0.7472290929740001</v>
+        <v>0.7139260224739999</v>
       </c>
       <c r="S16">
-        <v>0.006126816754087732</v>
+        <v>0.007146005094863946</v>
       </c>
       <c r="T16">
-        <v>0.008841847461278675</v>
+        <v>0.009926879735316712</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2283595</v>
+        <v>0.42447</v>
       </c>
       <c r="H17">
-        <v>0.456719</v>
+        <v>0.84894</v>
       </c>
       <c r="I17">
-        <v>0.1370461379472381</v>
+        <v>0.2223779938672774</v>
       </c>
       <c r="J17">
-        <v>0.09573758052040339</v>
+        <v>0.1601211348241683</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1640393333333333</v>
+        <v>0.07487166666666667</v>
       </c>
       <c r="N17">
-        <v>0.492118</v>
+        <v>0.224615</v>
       </c>
       <c r="O17">
-        <v>0.02017083634918183</v>
+        <v>0.01287435003490057</v>
       </c>
       <c r="P17">
-        <v>0.02777954494355415</v>
+        <v>0.01655871537719798</v>
       </c>
       <c r="Q17">
-        <v>0.03745994014033333</v>
+        <v>0.03178077635</v>
       </c>
       <c r="R17">
-        <v>0.224759640842</v>
+        <v>0.1906846581</v>
       </c>
       <c r="S17">
-        <v>0.002764335220821137</v>
+        <v>0.002862972133106301</v>
       </c>
       <c r="T17">
-        <v>0.002659546420853681</v>
+        <v>0.002651400297427347</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2283595</v>
+        <v>0.42447</v>
       </c>
       <c r="H18">
-        <v>0.456719</v>
+        <v>0.84894</v>
       </c>
       <c r="I18">
-        <v>0.1370461379472381</v>
+        <v>0.2223779938672774</v>
       </c>
       <c r="J18">
-        <v>0.09573758052040339</v>
+        <v>0.1601211348241683</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.45377</v>
       </c>
       <c r="O18">
-        <v>0.01859903602422231</v>
+        <v>0.02600892111095355</v>
       </c>
       <c r="P18">
-        <v>0.02561484056473563</v>
+        <v>0.03345212152666174</v>
       </c>
       <c r="Q18">
-        <v>0.03454089677166666</v>
+        <v>0.06420391730000001</v>
       </c>
       <c r="R18">
-        <v>0.20724538063</v>
+        <v>0.3852235038</v>
       </c>
       <c r="S18">
-        <v>0.002548926056661221</v>
+        <v>0.005783811699306129</v>
       </c>
       <c r="T18">
-        <v>0.002452302861083672</v>
+        <v>0.005356391661125068</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2283595</v>
+        <v>0.42447</v>
       </c>
       <c r="H19">
-        <v>0.456719</v>
+        <v>0.84894</v>
       </c>
       <c r="I19">
-        <v>0.1370461379472381</v>
+        <v>0.2223779938672774</v>
       </c>
       <c r="J19">
-        <v>0.09573758052040339</v>
+        <v>0.1601211348241683</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.524817</v>
+        <v>0.8000470000000001</v>
       </c>
       <c r="N19">
-        <v>1.574451</v>
+        <v>2.400141</v>
       </c>
       <c r="O19">
-        <v>0.06453328970044923</v>
+        <v>0.1375698656239178</v>
       </c>
       <c r="P19">
-        <v>0.0888761075919267</v>
+        <v>0.1769394371887155</v>
       </c>
       <c r="Q19">
-        <v>0.1198469477115</v>
+        <v>0.33959595009</v>
       </c>
       <c r="R19">
-        <v>0.719081686269</v>
+        <v>2.03757570054</v>
       </c>
       <c r="S19">
-        <v>0.008844038122476841</v>
+        <v>0.03059251073403775</v>
       </c>
       <c r="T19">
-        <v>0.008508783506922118</v>
+        <v>0.02833174347780678</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.2283595</v>
+        <v>0.42447</v>
       </c>
       <c r="H20">
-        <v>0.456719</v>
+        <v>0.84894</v>
       </c>
       <c r="I20">
-        <v>0.1370461379472381</v>
+        <v>0.2223779938672774</v>
       </c>
       <c r="J20">
-        <v>0.09573758052040339</v>
+        <v>0.1601211348241683</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.68238</v>
+        <v>3.881946</v>
       </c>
       <c r="N20">
-        <v>13.36476</v>
+        <v>7.763892</v>
       </c>
       <c r="O20">
-        <v>0.8216882540552003</v>
+        <v>0.6675092708044715</v>
       </c>
       <c r="P20">
-        <v>0.7544266844127117</v>
+        <v>0.5723574910282232</v>
       </c>
       <c r="Q20">
-        <v>1.52598495561</v>
+        <v>1.64776961862</v>
       </c>
       <c r="R20">
-        <v>6.10393982244</v>
+        <v>6.591078474480001</v>
       </c>
       <c r="S20">
-        <v>0.1126092018148742</v>
+        <v>0.1484393725293076</v>
       </c>
       <c r="T20">
-        <v>0.07222698544570294</v>
+        <v>0.09164653098855285</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.2283595</v>
+        <v>0.42447</v>
       </c>
       <c r="H21">
-        <v>0.456719</v>
+        <v>0.84894</v>
       </c>
       <c r="I21">
-        <v>0.1370461379472381</v>
+        <v>0.2223779938672774</v>
       </c>
       <c r="J21">
-        <v>0.09573758052040339</v>
+        <v>0.1601211348241683</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.6100073333333333</v>
+        <v>0.9074473333333333</v>
       </c>
       <c r="N21">
-        <v>1.830022</v>
+        <v>2.722342</v>
       </c>
       <c r="O21">
-        <v>0.07500858387094646</v>
+        <v>0.1560375924257564</v>
       </c>
       <c r="P21">
-        <v>0.1033028224870719</v>
+        <v>0.2006922348792017</v>
       </c>
       <c r="Q21">
-        <v>0.1393009696363333</v>
+        <v>0.38518416958</v>
       </c>
       <c r="R21">
-        <v>0.835805817818</v>
+        <v>2.31110501748</v>
       </c>
       <c r="S21">
-        <v>0.0102796367324047</v>
+        <v>0.03469932677151959</v>
       </c>
       <c r="T21">
-        <v>0.009889962285840987</v>
+        <v>0.03213506839925631</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2020723333333333</v>
+        <v>0.1951446666666667</v>
       </c>
       <c r="H22">
-        <v>0.606217</v>
+        <v>0.585434</v>
       </c>
       <c r="I22">
-        <v>0.1212703341412127</v>
+        <v>0.102235445348863</v>
       </c>
       <c r="J22">
-        <v>0.1270753983310031</v>
+        <v>0.1104204731131201</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1640393333333333</v>
+        <v>0.07487166666666667</v>
       </c>
       <c r="N22">
-        <v>0.492118</v>
+        <v>0.224615</v>
       </c>
       <c r="O22">
-        <v>0.02017083634918183</v>
+        <v>0.01287435003490057</v>
       </c>
       <c r="P22">
-        <v>0.02777954494355415</v>
+        <v>0.01655871537719798</v>
       </c>
       <c r="Q22">
-        <v>0.03314781084511111</v>
+        <v>0.01461080643444444</v>
       </c>
       <c r="R22">
-        <v>0.298330297606</v>
+        <v>0.13149725791</v>
       </c>
       <c r="S22">
-        <v>0.002446124063973</v>
+        <v>0.00131621490939521</v>
       </c>
       <c r="T22">
-        <v>0.003530096739156146</v>
+        <v>0.001828421186095697</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2020723333333333</v>
+        <v>0.1951446666666667</v>
       </c>
       <c r="H23">
-        <v>0.606217</v>
+        <v>0.585434</v>
       </c>
       <c r="I23">
-        <v>0.1212703341412127</v>
+        <v>0.102235445348863</v>
       </c>
       <c r="J23">
-        <v>0.1270753983310031</v>
+        <v>0.1104204731131201</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>0.45377</v>
       </c>
       <c r="O23">
-        <v>0.01859903602422231</v>
+        <v>0.02600892111095355</v>
       </c>
       <c r="P23">
-        <v>0.02561484056473563</v>
+        <v>0.03345212152666174</v>
       </c>
       <c r="Q23">
-        <v>0.03056478756555555</v>
+        <v>0.02951693179777778</v>
       </c>
       <c r="R23">
-        <v>0.27508308809</v>
+        <v>0.26565238618</v>
       </c>
       <c r="S23">
-        <v>0.002255511313361893</v>
+        <v>0.002659033632821781</v>
       </c>
       <c r="T23">
-        <v>0.003255016067948915</v>
+        <v>0.003693799085611578</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2020723333333333</v>
+        <v>0.1951446666666667</v>
       </c>
       <c r="H24">
-        <v>0.606217</v>
+        <v>0.585434</v>
       </c>
       <c r="I24">
-        <v>0.1212703341412127</v>
+        <v>0.102235445348863</v>
       </c>
       <c r="J24">
-        <v>0.1270753983310031</v>
+        <v>0.1104204731131201</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.524817</v>
+        <v>0.8000470000000001</v>
       </c>
       <c r="N24">
-        <v>1.574451</v>
+        <v>2.400141</v>
       </c>
       <c r="O24">
-        <v>0.06453328970044923</v>
+        <v>0.1375698656239178</v>
       </c>
       <c r="P24">
-        <v>0.0888761075919267</v>
+        <v>0.1769394371887155</v>
       </c>
       <c r="Q24">
-        <v>0.106050995763</v>
+        <v>0.1561249051326667</v>
       </c>
       <c r="R24">
-        <v>0.9544589618670001</v>
+        <v>1.405124146194</v>
       </c>
       <c r="S24">
-        <v>0.007825973605205162</v>
+        <v>0.01406451647864447</v>
       </c>
       <c r="T24">
-        <v>0.01129396677435317</v>
+        <v>0.01953773636674715</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2020723333333333</v>
+        <v>0.1951446666666667</v>
       </c>
       <c r="H25">
-        <v>0.606217</v>
+        <v>0.585434</v>
       </c>
       <c r="I25">
-        <v>0.1212703341412127</v>
+        <v>0.102235445348863</v>
       </c>
       <c r="J25">
-        <v>0.1270753983310031</v>
+        <v>0.1104204731131201</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.68238</v>
+        <v>3.881946</v>
       </c>
       <c r="N25">
-        <v>13.36476</v>
+        <v>7.763892</v>
       </c>
       <c r="O25">
-        <v>0.8216882540552003</v>
+        <v>0.6675092708044715</v>
       </c>
       <c r="P25">
-        <v>0.7544266844127117</v>
+        <v>0.5723574910282232</v>
       </c>
       <c r="Q25">
-        <v>1.35032411882</v>
+        <v>0.757541058188</v>
       </c>
       <c r="R25">
-        <v>8.10194471292</v>
+        <v>4.545246349128</v>
       </c>
       <c r="S25">
-        <v>0.09964640912918385</v>
+        <v>0.06824310757518995</v>
       </c>
       <c r="T25">
-        <v>0.09586907143328327</v>
+        <v>0.06319998494917478</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.2020723333333333</v>
+        <v>0.1951446666666667</v>
       </c>
       <c r="H26">
-        <v>0.606217</v>
+        <v>0.585434</v>
       </c>
       <c r="I26">
-        <v>0.1212703341412127</v>
+        <v>0.102235445348863</v>
       </c>
       <c r="J26">
-        <v>0.1270753983310031</v>
+        <v>0.1104204731131201</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6100073333333333</v>
+        <v>0.9074473333333333</v>
       </c>
       <c r="N26">
-        <v>1.830022</v>
+        <v>2.722342</v>
       </c>
       <c r="O26">
-        <v>0.07500858387094646</v>
+        <v>0.1560375924257564</v>
       </c>
       <c r="P26">
-        <v>0.1033028224870719</v>
+        <v>0.2006922348792017</v>
       </c>
       <c r="Q26">
-        <v>0.1232656051971111</v>
+        <v>0.1770835073808889</v>
       </c>
       <c r="R26">
-        <v>1.109390446774</v>
+        <v>1.593751566428</v>
       </c>
       <c r="S26">
-        <v>0.009096316029488858</v>
+        <v>0.01595257275281158</v>
       </c>
       <c r="T26">
-        <v>0.01312724731626157</v>
+        <v>0.02216053152549087</v>
       </c>
     </row>
   </sheetData>
